--- a/tests/Projet_details/Project Report Data - Copy.xlsx
+++ b/tests/Projet_details/Project Report Data - Copy.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="22995" windowHeight="10560" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="22995" windowHeight="10560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Project Details " sheetId="1" r:id="rId1"/>
     <sheet name="Index" sheetId="2" r:id="rId2"/>
     <sheet name="Specification" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
   <si>
     <t xml:space="preserve">PROJECT:  </t>
   </si>
@@ -123,9 +123,6 @@
     <t>E-R Diagram</t>
   </si>
   <si>
-    <t xml:space="preserve">User Interface </t>
-  </si>
-  <si>
     <t xml:space="preserve">Errors and Solutions </t>
   </si>
   <si>
@@ -225,15 +222,6 @@
   </si>
   <si>
     <t xml:space="preserve">Technical Details Hardware (Specification) </t>
-  </si>
-  <si>
-    <t>Notation Description</t>
-  </si>
-  <si>
-    <t>UML Notation</t>
-  </si>
-  <si>
-    <t>Activity Is used to represent a set of actions</t>
   </si>
 </sst>
 </file>
@@ -243,7 +231,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,22 +347,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color rgb="FF333333"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FF333333"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FF333333"/>
-      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="4">
@@ -397,7 +369,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -438,67 +410,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFF1F1F1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFF1F1F1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFF1F1F1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFF1F1F1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFF1F1F1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFF1F1F1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFF1F1F1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFF1F1F1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFF1F1F1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFF1F1F1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -570,21 +487,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -599,66 +501,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1400175</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1028700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Activity Diagram Notation - Activity"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3848100" y="533400"/>
-          <a:ext cx="942975" cy="752475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -954,14 +796,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="50.25" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="55.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="50.25" customHeight="1">
+    <row r="1" spans="1:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -969,7 +811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="50.25" customHeight="1">
+    <row r="2" spans="1:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -977,7 +819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="50.25" customHeight="1">
+    <row r="3" spans="1:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -985,49 +827,49 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="50.25" customHeight="1">
+    <row r="4" spans="1:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" ht="50.25" customHeight="1">
+    <row r="5" spans="1:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" ht="50.25" customHeight="1">
+    <row r="6" spans="1:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" ht="50.25" customHeight="1">
+    <row r="7" spans="1:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" ht="50.25" customHeight="1">
+    <row r="8" spans="1:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" ht="50.25" customHeight="1">
+    <row r="9" spans="1:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2" ht="50.25" customHeight="1">
+    <row r="10" spans="1:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2" ht="50.25" customHeight="1">
+    <row r="11" spans="1:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1043,11 +885,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="26.25" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="105" style="5" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="5.140625" style="5" customWidth="1"/>
@@ -1058,7 +900,7 @@
     <col min="7" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="11" customFormat="1" ht="26.25" customHeight="1">
+    <row r="1" spans="1:6" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
@@ -1074,14 +916,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1">
+    <row r="2" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="21">
+    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="15">
         <v>1</v>
@@ -1094,7 +936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21">
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>15</v>
       </c>
@@ -1110,7 +952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="21">
+    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="15">
         <f>B4+1</f>
@@ -1124,7 +966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="21">
+    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="15">
         <f>B5+1</f>
@@ -1135,40 +977,40 @@
       </c>
       <c r="E6" s="23"/>
     </row>
-    <row r="7" spans="1:6" ht="26.25" customHeight="1">
+    <row r="7" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="15">
         <f>B6+1</f>
         <v>5</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="26.25" customHeight="1">
+    <row r="8" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
       <c r="D8" s="16">
         <f>B7</f>
         <v>5</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="26.25" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
       <c r="D9" s="16">
         <f>D8+0.1</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="26.25" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="23">
         <f>B7+1</f>
         <v>6</v>
@@ -1181,7 +1023,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="26.25" customHeight="1">
+    <row r="11" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="23"/>
       <c r="D11" s="16">
         <f>B10</f>
@@ -1194,7 +1036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="26.25" customHeight="1">
+    <row r="12" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="23"/>
       <c r="D12" s="16">
         <f>D11+0.1</f>
@@ -1207,7 +1049,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="26.25" customHeight="1">
+    <row r="13" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="23"/>
       <c r="D13" s="16">
         <f t="shared" ref="D13:D17" si="0">D12+0.1</f>
@@ -1220,7 +1062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="26.25" customHeight="1">
+    <row r="14" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="23"/>
       <c r="D14" s="16">
         <f t="shared" si="0"/>
@@ -1233,7 +1075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="26.25" customHeight="1">
+    <row r="15" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="23"/>
       <c r="D15" s="16">
         <f t="shared" si="0"/>
@@ -1246,7 +1088,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="26.25" customHeight="1">
+    <row r="16" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="23"/>
       <c r="D16" s="16">
         <f t="shared" si="0"/>
@@ -1259,7 +1101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="26.25" customHeight="1">
+    <row r="17" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="23"/>
       <c r="D17" s="16">
         <f t="shared" si="0"/>
@@ -1269,86 +1111,80 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="26.25" customHeight="1">
+    <row r="18" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="15">
         <f>B10+1</f>
         <v>7</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="26.25" customHeight="1">
+    <row r="19" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="23">
         <f>B18+1</f>
         <v>8</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="26.25" customHeight="1">
+    <row r="20" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="23"/>
       <c r="D20" s="16">
         <f>B19</f>
         <v>8</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>31</v>
+      <c r="E20" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="26.25" customHeight="1">
+    <row r="21" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="23"/>
-      <c r="D21" s="16">
-        <f>D20+0.1</f>
-        <v>8.1</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="26.25" customHeight="1">
+      <c r="D21" s="16"/>
+    </row>
+    <row r="22" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="23">
         <f>B19+1</f>
         <v>9</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="26.25" customHeight="1">
+    <row r="23" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="23"/>
       <c r="D23" s="16">
         <f>B22</f>
         <v>9</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="26.25" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="23"/>
       <c r="D24" s="16">
         <f>D23+0.1</f>
         <v>9.1</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1377,134 +1213,134 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="31.5" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="2" width="47.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="31.5" customHeight="1">
+    <row r="1" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="31.5" customHeight="1">
-      <c r="A2" s="25" t="s">
-        <v>64</v>
-      </c>
       <c r="B2" s="25"/>
     </row>
-    <row r="3" spans="1:2" ht="46.5" customHeight="1">
+    <row r="3" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="20" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="31.5" customHeight="1">
-      <c r="A4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="18" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="31.5" customHeight="1">
-      <c r="A5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="18" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="31.5" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="18" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="31.5" customHeight="1">
-      <c r="A7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="18" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="31.5" customHeight="1">
-      <c r="A8" s="17" t="s">
+    <row r="9" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="25"/>
+    </row>
+    <row r="14" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="31.5" customHeight="1">
-      <c r="A9" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="31.5" customHeight="1">
-      <c r="A10" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="18" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="23.25">
-      <c r="A13" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="25"/>
-    </row>
-    <row r="14" spans="1:2" ht="31.5" customHeight="1">
-      <c r="A14" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="31.5" customHeight="1">
-      <c r="A15" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="18" t="s">
+    <row r="16" spans="1:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="72.75" customHeight="1">
-      <c r="A16" s="17" t="s">
+      <c r="B16" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="31.5" customHeight="1">
+    </row>
+    <row r="17" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
     </row>
-    <row r="18" spans="1:2" ht="31.5" customHeight="1">
+    <row r="18" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
     </row>
-    <row r="19" spans="1:2" ht="31.5" customHeight="1">
+    <row r="19" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
     </row>
-    <row r="20" spans="1:2" ht="31.5" customHeight="1">
+    <row r="20" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
     </row>
-    <row r="21" spans="1:2" ht="31.5" customHeight="1">
+    <row r="21" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
     </row>
@@ -1522,42 +1358,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="50.85546875" customWidth="1"/>
-    <col min="2" max="2" width="50.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="20.25" thickBot="1">
-      <c r="A1" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="105" customHeight="1">
-      <c r="A2" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="29"/>
-    </row>
-    <row r="3" spans="1:2" ht="19.5" thickBot="1">
-      <c r="A3" s="28"/>
-      <c r="B3" s="30"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:B3"/>
-  </mergeCells>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/tests/Projet_details/Project Report Data - Copy.xlsx
+++ b/tests/Projet_details/Project Report Data - Copy.xlsx
@@ -885,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B79" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/tests/Projet_details/Project Report Data - Copy.xlsx
+++ b/tests/Projet_details/Project Report Data - Copy.xlsx
@@ -885,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B79" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
